--- a/src/xlsx/core.xlsx
+++ b/src/xlsx/core.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeyellowCHS/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/Pokemon_Projects/pokeyellowCHS/src/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98338760-6E44-794E-9387-A729DA30D6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DC6E3A-6632-FB4E-8A59-68EE1B198710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10840" yWindow="780" windowWidth="27420" windowHeight="20480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14082,11 +14082,11 @@
     <t>对</t>
   </si>
   <si>
-    <t>特殊攻击抗性变强了！</t>
+    <t>特殊抗性提高了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打击攻击抗性变强了！</t>
+    <t>物理抗性提高了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59478,7 +59478,7 @@
   <dimension ref="A1:O279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="G237" sqref="G237"/>
+      <selection activeCell="G235" sqref="G235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
